--- a/biology/Botanique/Dendrochronologie/Dendrochronologie.xlsx
+++ b/biology/Botanique/Dendrochronologie/Dendrochronologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Branche de la dendrologie, la dendrochronologie (du grec ancien δένδρον / déndron, « arbre », χρόνος / khrónos, « temps », avec le suffixe -λογία / -logía, « récit, discours ») est une méthode scientifique permettant avant tout d'obtenir des datations de pièces de bois à l’année près, en comptant et en analysant la morphologie des anneaux de croissance (ou cernes) des arbres. Elle permet également de reconstituer les changements climatiques et environnementaux.
-Le botaniste bâlois Heinrich Zoller avait déjà publié dans les années 1950 une étude montrant et utilisant la présence de cernes annuels chez certaines herbacées. Il a, grâce à cela, évalué l'âge de plusieurs herbacées de végétation de steppe sèche du Valais, mais ses travaux sont passés relativement inaperçus[1].
+Le botaniste bâlois Heinrich Zoller avait déjà publié dans les années 1950 une étude montrant et utilisant la présence de cernes annuels chez certaines herbacées. Il a, grâce à cela, évalué l'âge de plusieurs herbacées de végétation de steppe sèche du Valais, mais ses travaux sont passés relativement inaperçus.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La dendrochronologie a été inventée et développée au cours du XXe siècle par Andrew Ellicott Douglass, le fondateur du Laboratory of Tree-Ring Research, de l’université de l'Arizona. Plusieurs siècles auparavant, Léonard de Vinci avait déjà décrit le principe des cernes de croissance et leurs variations en fonction des conditions climatiques. L'Américain Edmund Schulman (1908-1958)[2] et le Suisse  Fritz Schweingruber (en) (1935-2020) ont également largement contribué au développement scientifique de la discipline.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La dendrochronologie a été inventée et développée au cours du XXe siècle par Andrew Ellicott Douglass, le fondateur du Laboratory of Tree-Ring Research, de l’université de l'Arizona. Plusieurs siècles auparavant, Léonard de Vinci avait déjà décrit le principe des cernes de croissance et leurs variations en fonction des conditions climatiques. L'Américain Edmund Schulman (1908-1958) et le Suisse  Fritz Schweingruber (en) (1935-2020) ont également largement contribué au développement scientifique de la discipline.
 </t>
         </is>
       </c>
@@ -543,12 +557,14 @@
           <t>Principes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Sous des latitudes moyennes, les arbres poussent en produisant du bois lorsque les conditions climatiques sont favorables (du début du printemps à la fin de l'été). Au printemps, les cernes sont clairs car les vaisseaux conduisant la sève sont plus larges, ce qui permet des flux plus importants. L'analyse d'un échantillon de bois en repérant ses anneaux de croissance et en attribuant à chacun d'entre eux un millésime de formation, permet de déduire les conditions climatiques contemporaines de la vie de l'arbre.
 En prenant des échantillons dans différents sites d'une même région et ayant poussé à des époques différentes mais se recoupant, il est possible de composer une séquence sur plusieurs siècles et de créer une chronologie de référence permettant de réaliser des études paléoclimatiques. L'idéal est bien sûr d'avoir une tranche d'arbre multi-centenaire. La comparaison du profil de croissance d'un morceau de bois d'une époque indéterminée avec cette chronologie de référence permet sa datation exacte à l'année près. La difficulté principale consiste à recaler les séquences des cernes sur des références temporelles absolues. Cela peut être l'année courante si la séquence remonte continûment jusqu'au présent, ou l'utilisation de marqueurs temporels comme les événements de Miyake, d'origine spatiale et couvrant la totalité du globe.
 Cette propriété permet d'établir des courbes de calibrage sur le passé relativement proche pour corriger les résultats de la datation par le carbone 14, qui suppose une concentration de carbone 14 constante dans l'atmosphère au cours des siècles, alors que celle-ci a varié. Depuis quelques décennies, les datations par le carbone 14 sont calibrées et donc plus précises.
-La dendrochronologie est la meilleure méthode de datation absolue utilisée en archéologie pour les périodes remontant jusqu'au Mésolithique (jusqu'à environ 7000 av. J.-C.) (à Charavines, en Isère, dès 1974, un habitat néolithique fut le site français pionnier dans cette discipline[3]). Elle permet une datation très précise, à l'année près, mais nécessite que des éléments en bois de taille suffisante soient conservés et qu'il n'y ait pas de cernes manquants ou surnuméraires[4].
+La dendrochronologie est la meilleure méthode de datation absolue utilisée en archéologie pour les périodes remontant jusqu'au Mésolithique (jusqu'à environ 7000 av. J.-C.) (à Charavines, en Isère, dès 1974, un habitat néolithique fut le site français pionnier dans cette discipline). Elle permet une datation très précise, à l'année près, mais nécessite que des éléments en bois de taille suffisante soient conservés et qu'il n'y ait pas de cernes manquants ou surnuméraires.
 </t>
         </is>
       </c>
